--- a/data_raw/CME_BTC_Future_latest.xlsx
+++ b/data_raw/CME_BTC_Future_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J365"/>
+  <dimension ref="A1:J416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17028,15 +17028,11 @@
           <t>112595.00</t>
         </is>
       </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>112285.00</t>
-        </is>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>-2180.00</t>
-        </is>
+      <c r="G346" t="n">
+        <v>112285</v>
+      </c>
+      <c r="H346" t="n">
+        <v>-2180</v>
       </c>
       <c r="I346" t="inlineStr">
         <is>
@@ -17080,15 +17076,11 @@
           <t>113400.00A</t>
         </is>
       </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>112985.00</t>
-        </is>
-      </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>-2185.00</t>
-        </is>
+      <c r="G347" t="n">
+        <v>112985</v>
+      </c>
+      <c r="H347" t="n">
+        <v>-2185</v>
       </c>
       <c r="I347" t="inlineStr">
         <is>
@@ -17132,15 +17124,11 @@
           <t>113900.00B</t>
         </is>
       </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>113795.00</t>
-        </is>
-      </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>-2195.00</t>
-        </is>
+      <c r="G348" t="n">
+        <v>113795</v>
+      </c>
+      <c r="H348" t="n">
+        <v>-2195</v>
       </c>
       <c r="I348" t="inlineStr">
         <is>
@@ -17184,15 +17172,11 @@
           <t>117155.00B</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>114485.00</t>
-        </is>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>-2185.00</t>
-        </is>
+      <c r="G349" t="n">
+        <v>114485</v>
+      </c>
+      <c r="H349" t="n">
+        <v>-2185</v>
       </c>
       <c r="I349" t="inlineStr">
         <is>
@@ -17236,15 +17220,11 @@
           <t>115105.00B</t>
         </is>
       </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>115155.00</t>
-        </is>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>-2185.00</t>
-        </is>
+      <c r="G350" t="n">
+        <v>115155</v>
+      </c>
+      <c r="H350" t="n">
+        <v>-2185</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
@@ -17288,15 +17268,11 @@
           <t>118415.00B</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>115860.00</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>-2185.00</t>
-        </is>
+      <c r="G351" t="n">
+        <v>115860</v>
+      </c>
+      <c r="H351" t="n">
+        <v>-2185</v>
       </c>
       <c r="I351" t="inlineStr">
         <is>
@@ -17340,15 +17316,11 @@
           <t>119285.00B</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>116905.00</t>
-        </is>
-      </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>-2185.00</t>
-        </is>
+      <c r="G352" t="n">
+        <v>116905</v>
+      </c>
+      <c r="H352" t="n">
+        <v>-2185</v>
       </c>
       <c r="I352" t="inlineStr">
         <is>
@@ -17392,15 +17364,11 @@
           <t>120805.00B</t>
         </is>
       </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>118455.00</t>
-        </is>
-      </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>-2185.00</t>
-        </is>
+      <c r="G353" t="n">
+        <v>118455</v>
+      </c>
+      <c r="H353" t="n">
+        <v>-2185</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
@@ -17444,15 +17412,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>120145.00</t>
-        </is>
-      </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>-2310.00</t>
-        </is>
+      <c r="G354" t="n">
+        <v>120145</v>
+      </c>
+      <c r="H354" t="n">
+        <v>-2310</v>
       </c>
       <c r="I354" t="inlineStr">
         <is>
@@ -17496,15 +17460,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>121940.00</t>
-        </is>
-      </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>-2345.00</t>
-        </is>
+      <c r="G355" t="n">
+        <v>121940</v>
+      </c>
+      <c r="H355" t="n">
+        <v>-2345</v>
       </c>
       <c r="I355" t="inlineStr">
         <is>
@@ -17548,15 +17508,11 @@
           <t>117235.00B</t>
         </is>
       </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>116850.00</t>
-        </is>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>+4565.00</t>
-        </is>
+      <c r="G356" t="n">
+        <v>116850</v>
+      </c>
+      <c r="H356" t="n">
+        <v>4565</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
@@ -17600,15 +17556,11 @@
           <t>117990.00A</t>
         </is>
       </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>117590.00</t>
-        </is>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>+4605.00</t>
-        </is>
+      <c r="G357" t="n">
+        <v>117590</v>
+      </c>
+      <c r="H357" t="n">
+        <v>4605</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
@@ -17652,15 +17604,11 @@
           <t>118535.00A</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>118450.00</t>
-        </is>
-      </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>+4655.00</t>
-        </is>
+      <c r="G358" t="n">
+        <v>118450</v>
+      </c>
+      <c r="H358" t="n">
+        <v>4655</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
@@ -17704,15 +17652,11 @@
           <t>119435.00B</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>119170.00</t>
-        </is>
-      </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>+4685.00</t>
-        </is>
+      <c r="G359" t="n">
+        <v>119170</v>
+      </c>
+      <c r="H359" t="n">
+        <v>4685</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
@@ -17756,15 +17700,11 @@
           <t>120520.00B</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>119845.00</t>
-        </is>
-      </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>+4690.00</t>
-        </is>
+      <c r="G360" t="n">
+        <v>119845</v>
+      </c>
+      <c r="H360" t="n">
+        <v>4690</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
@@ -17808,15 +17748,11 @@
           <t>121105.00B</t>
         </is>
       </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>120550.00</t>
-        </is>
-      </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>+4690.00</t>
-        </is>
+      <c r="G361" t="n">
+        <v>120550</v>
+      </c>
+      <c r="H361" t="n">
+        <v>4690</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
@@ -17860,15 +17796,11 @@
           <t>122305.00B</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>121595.00</t>
-        </is>
-      </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>+4690.00</t>
-        </is>
+      <c r="G362" t="n">
+        <v>121595</v>
+      </c>
+      <c r="H362" t="n">
+        <v>4690</v>
       </c>
       <c r="I362" t="inlineStr">
         <is>
@@ -17912,15 +17844,11 @@
           <t>124035.00B</t>
         </is>
       </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>123355.00</t>
-        </is>
-      </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>+4900.00</t>
-        </is>
+      <c r="G363" t="n">
+        <v>123355</v>
+      </c>
+      <c r="H363" t="n">
+        <v>4900</v>
       </c>
       <c r="I363" t="inlineStr">
         <is>
@@ -17964,15 +17892,11 @@
           <t>120645.00B</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>124955.00</t>
-        </is>
-      </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>+4810.00</t>
-        </is>
+      <c r="G364" t="n">
+        <v>124955</v>
+      </c>
+      <c r="H364" t="n">
+        <v>4810</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
@@ -18016,15 +17940,11 @@
           <t>122155.00B</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>126795.00</t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>+4855.00</t>
-        </is>
+      <c r="G365" t="n">
+        <v>126795</v>
+      </c>
+      <c r="H365" t="n">
+        <v>4855</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
@@ -18032,6 +17952,2658 @@
         </is>
       </c>
       <c r="J365" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>113450.00</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>113800.00</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>109590.00</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>109730.00</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>110910.00</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>-5940.00</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>11,303</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>11,635</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>114325.00</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>114510.00B</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>110280.00</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>110525.00A</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>111610.00</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>-5980.00</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>6,145</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>15,564</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>114710.00</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>115270.00</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>111110.00</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>111110.00B</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>112475.00</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>-5975.00</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>111945.00A</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>111945.00A</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>113205.00</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>-5965.00</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>115500.00</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>115500.00</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>112715.00A</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>115500.00A</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>113905.00</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>-5940.00</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>113695.00A</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>113695.00A</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>114610.00</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>-5940.00</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>115715.00A</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>115715.00A</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>115655.00</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>-5940.00</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>118280.00A</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>118280.00A</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>117205.00</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>-6150.00</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>121120.00A</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>121120.00A</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>118805.00</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>-6150.00</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>122860.00A</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>122860.00A</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>120355.00</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>-6440.00</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>110005.00</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>111495.00</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>108845.00</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>111485.00A</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>111230.00</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>+320.00</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>8,531</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>8,699</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>110675.00</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>112185.00</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>109550.00A</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>112175.00A</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>111915.00</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>+305.00</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>5,852</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>17,993</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>111850.00</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>113010.00B</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>110455.00A</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>112915.00A</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>112770.00</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>+295.00</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>113660.00B</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>111235.00A</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>111235.00A</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>113465.00</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>+260.00</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>114345.00B</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>111915.00A</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>111915.00A</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>114165.00</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>+260.00</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>115005.00B</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>112895.00A</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>112895.00A</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>114870.00</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>+260.00</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>115910.00B</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>114900.00A</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>114900.00A</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>115915.00</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>+260.00</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>118270.00B</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>118270.00B</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>117560.00</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>+355.00</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>119160.00</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>+355.00</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>120750.00</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>+395.00</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>111645.00</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>112785.00</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>110420.00</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>112505.00B</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>112220.00</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>+990.00</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>5,824</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>5,892</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>112300.00</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>113460.00</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>111100.00</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>113150.00B</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>112880.00</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>+965.00</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>5,157</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>20,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>113250.00</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>114265.00B</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>111975.00A</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>113800.00A</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>113725.00</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>+955.00</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>114505.00</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>114925.00B</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>112745.00A</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>114505.00A</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>114425.00</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>+960.00</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>115630.00B</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>113490.00A</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>115630.00B</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>115125.00</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>+960.00</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>116205.00B</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>114495.00A</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>116205.00B</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>115835.00</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>+965.00</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>117585.00B</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>117585.00B</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>117045.00</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>+1130.00</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>119125.00B</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>119125.00B</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>118685.00</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>+1125.00</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>120285.00</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>+1125.00</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>121835.00</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>+1085.00</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>111590.00</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>113545.00B</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>111010.00A</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>111935.00</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>112025.00</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-195.00</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>6,063</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>3,893</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>112375.00</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>114225.00</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>111680.00A</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>112615.00</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>112740.00</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-140.00</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>6,216</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>22,779</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>114745.00</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>115025.00B</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>112560.00A</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>113570.00A</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>113575.00</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-150.00</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>115695.00B</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>113305.00A</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>113305.00A</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>114265.00</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-160.00</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>115870.00</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>116380.00B</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>114035.00A</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>115870.00B</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>114960.00</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-165.00</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>117010.00B</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>114990.00A</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>114990.00A</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>115670.00</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-165.00</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>117845.00</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>118370.00B</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>117845.00</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>117845.00B</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>116710.00</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-335.00</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>119685.00B</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>119685.00B</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>118260.00</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-425.00</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>119860.00</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-425.00</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>121565.00</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-270.00</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>112165.00</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>112695.00B</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>108445.00A</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>108655.00</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>108653.78</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-3371.22</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>1,448</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>112845.00</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>113405.00B</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>108020.00</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>108265.00</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>108775.00</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-3965.00</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>7,691</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>24,135</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>113710.00</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>114230.00B</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>108900.00A</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>109165.00A</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>109625.00</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-3950.00</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>1,330</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>114880.00B</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>109575.00A</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>114880.00B</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>110290.00</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-3975.00</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>115565.00B</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>110345.00A</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>115565.00B</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>110985.00</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-3975.00</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>116260.00B</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>111205.00A</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>116260.00B</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>111695.00</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-3975.00</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>112405.00</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>117380.00B</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>113395.00A</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>117380.00B</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>112735.00</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-3975.00</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>118550.00B</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>115995.00A</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>118550.00B</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>114285.00</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-3975.00</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>118835.00A</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>118835.00A</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>115885.00</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-3975.00</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>120545.00A</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>120545.00A</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>117505.00</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-4060.00</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/data_raw/CME_BTC_Future_latest.xlsx
+++ b/data_raw/CME_BTC_Future_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J446"/>
+  <dimension ref="A1:J496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20436,15 +20436,11 @@
           <t>112120.00A</t>
         </is>
       </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>111385.00</t>
-        </is>
-      </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>+2610.00</t>
-        </is>
+      <c r="G417" t="n">
+        <v>111385</v>
+      </c>
+      <c r="H417" t="n">
+        <v>2610</v>
       </c>
       <c r="I417" t="inlineStr">
         <is>
@@ -20488,15 +20484,11 @@
           <t>112975.00A</t>
         </is>
       </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>112230.00</t>
-        </is>
-      </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>+2605.00</t>
-        </is>
+      <c r="G418" t="n">
+        <v>112230</v>
+      </c>
+      <c r="H418" t="n">
+        <v>2605</v>
       </c>
       <c r="I418" t="inlineStr">
         <is>
@@ -20540,15 +20532,11 @@
           <t>112970.00B</t>
         </is>
       </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>112915.00</t>
-        </is>
-      </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>+2625.00</t>
-        </is>
+      <c r="G419" t="n">
+        <v>112915</v>
+      </c>
+      <c r="H419" t="n">
+        <v>2625</v>
       </c>
       <c r="I419" t="inlineStr">
         <is>
@@ -20592,15 +20580,11 @@
           <t>113100.00A</t>
         </is>
       </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>113615.00</t>
-        </is>
-      </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>+2630.00</t>
-        </is>
+      <c r="G420" t="n">
+        <v>113615</v>
+      </c>
+      <c r="H420" t="n">
+        <v>2630</v>
       </c>
       <c r="I420" t="inlineStr">
         <is>
@@ -20644,15 +20628,11 @@
           <t>114550.00B</t>
         </is>
       </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>114345.00</t>
-        </is>
-      </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>+2650.00</t>
-        </is>
+      <c r="G421" t="n">
+        <v>114345</v>
+      </c>
+      <c r="H421" t="n">
+        <v>2650</v>
       </c>
       <c r="I421" t="inlineStr">
         <is>
@@ -20696,15 +20676,11 @@
           <t>115705.00B</t>
         </is>
       </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>114845.00</t>
-        </is>
-      </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>+2440.00</t>
-        </is>
+      <c r="G422" t="n">
+        <v>114845</v>
+      </c>
+      <c r="H422" t="n">
+        <v>2440</v>
       </c>
       <c r="I422" t="inlineStr">
         <is>
@@ -20748,15 +20724,11 @@
           <t>116305.00B</t>
         </is>
       </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>115365.00</t>
-        </is>
-      </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>+2630.00</t>
-        </is>
+      <c r="G423" t="n">
+        <v>115365</v>
+      </c>
+      <c r="H423" t="n">
+        <v>2630</v>
       </c>
       <c r="I423" t="inlineStr">
         <is>
@@ -20800,15 +20772,11 @@
           <t>117730.00B</t>
         </is>
       </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>116915.00</t>
-        </is>
-      </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>+2630.00</t>
-        </is>
+      <c r="G424" t="n">
+        <v>116915</v>
+      </c>
+      <c r="H424" t="n">
+        <v>2630</v>
       </c>
       <c r="I424" t="inlineStr">
         <is>
@@ -20852,15 +20820,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>118515.00</t>
-        </is>
-      </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>+2630.00</t>
-        </is>
+      <c r="G425" t="n">
+        <v>118515</v>
+      </c>
+      <c r="H425" t="n">
+        <v>2630</v>
       </c>
       <c r="I425" t="inlineStr">
         <is>
@@ -20904,15 +20868,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>120230.00</t>
-        </is>
-      </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>+2725.00</t>
-        </is>
+      <c r="G426" t="n">
+        <v>120230</v>
+      </c>
+      <c r="H426" t="n">
+        <v>2725</v>
       </c>
       <c r="I426" t="inlineStr">
         <is>
@@ -20956,15 +20916,11 @@
           <t>112870.00</t>
         </is>
       </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>112830.00</t>
-        </is>
-      </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>+1445.00</t>
-        </is>
+      <c r="G427" t="n">
+        <v>112830</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1445</v>
       </c>
       <c r="I427" t="inlineStr">
         <is>
@@ -21008,15 +20964,11 @@
           <t>113675.00B</t>
         </is>
       </c>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>113685.00</t>
-        </is>
-      </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>+1455.00</t>
-        </is>
+      <c r="G428" t="n">
+        <v>113685</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1455</v>
       </c>
       <c r="I428" t="inlineStr">
         <is>
@@ -21060,15 +21012,11 @@
           <t>114420.00B</t>
         </is>
       </c>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>114375.00</t>
-        </is>
-      </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>+1460.00</t>
-        </is>
+      <c r="G429" t="n">
+        <v>114375</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1460</v>
       </c>
       <c r="I429" t="inlineStr">
         <is>
@@ -21112,15 +21060,11 @@
           <t>115375.00B</t>
         </is>
       </c>
-      <c r="G430" t="inlineStr">
-        <is>
-          <t>115075.00</t>
-        </is>
-      </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>+1460.00</t>
-        </is>
+      <c r="G430" t="n">
+        <v>115075</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1460</v>
       </c>
       <c r="I430" t="inlineStr">
         <is>
@@ -21164,15 +21108,11 @@
           <t>116130.00B</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
-        <is>
-          <t>115780.00</t>
-        </is>
-      </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>+1435.00</t>
-        </is>
+      <c r="G431" t="n">
+        <v>115780</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1435</v>
       </c>
       <c r="I431" t="inlineStr">
         <is>
@@ -21216,15 +21156,11 @@
           <t>116605.00B</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>116330.00</t>
-        </is>
-      </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>+1485.00</t>
-        </is>
+      <c r="G432" t="n">
+        <v>116330</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1485</v>
       </c>
       <c r="I432" t="inlineStr">
         <is>
@@ -21268,15 +21204,11 @@
           <t>117105.00B</t>
         </is>
       </c>
-      <c r="G433" t="inlineStr">
-        <is>
-          <t>116825.00</t>
-        </is>
-      </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>+1460.00</t>
-        </is>
+      <c r="G433" t="n">
+        <v>116825</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1460</v>
       </c>
       <c r="I433" t="inlineStr">
         <is>
@@ -21320,15 +21252,11 @@
           <t>118555.00B</t>
         </is>
       </c>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>118375.00</t>
-        </is>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>+1460.00</t>
-        </is>
+      <c r="G434" t="n">
+        <v>118375</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1460</v>
       </c>
       <c r="I434" t="inlineStr">
         <is>
@@ -21372,15 +21300,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>119995.00</t>
-        </is>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>+1480.00</t>
-        </is>
+      <c r="G435" t="n">
+        <v>119995</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1480</v>
       </c>
       <c r="I435" t="inlineStr">
         <is>
@@ -21424,15 +21348,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>121790.00</t>
-        </is>
-      </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>+1560.00</t>
-        </is>
+      <c r="G436" t="n">
+        <v>121790</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1560</v>
       </c>
       <c r="I436" t="inlineStr">
         <is>
@@ -21476,15 +21396,11 @@
           <t>110760.00B</t>
         </is>
       </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>110245.00</t>
-        </is>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>-2585.00</t>
-        </is>
+      <c r="G437" t="n">
+        <v>110245</v>
+      </c>
+      <c r="H437" t="n">
+        <v>-2585</v>
       </c>
       <c r="I437" t="inlineStr">
         <is>
@@ -21528,15 +21444,11 @@
           <t>111575.00B</t>
         </is>
       </c>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>111095.00</t>
-        </is>
-      </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>-2590.00</t>
-        </is>
+      <c r="G438" t="n">
+        <v>111095</v>
+      </c>
+      <c r="H438" t="n">
+        <v>-2590</v>
       </c>
       <c r="I438" t="inlineStr">
         <is>
@@ -21580,15 +21492,11 @@
           <t>111750.00A</t>
         </is>
       </c>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>111780.00</t>
-        </is>
-      </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>-2595.00</t>
-        </is>
+      <c r="G439" t="n">
+        <v>111780</v>
+      </c>
+      <c r="H439" t="n">
+        <v>-2595</v>
       </c>
       <c r="I439" t="inlineStr">
         <is>
@@ -21632,15 +21540,11 @@
           <t>112035.00A</t>
         </is>
       </c>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>112490.00</t>
-        </is>
-      </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>-2585.00</t>
-        </is>
+      <c r="G440" t="n">
+        <v>112490</v>
+      </c>
+      <c r="H440" t="n">
+        <v>-2585</v>
       </c>
       <c r="I440" t="inlineStr">
         <is>
@@ -21684,15 +21588,11 @@
           <t>112855.00A</t>
         </is>
       </c>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>113215.00</t>
-        </is>
-      </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>-2565.00</t>
-        </is>
+      <c r="G441" t="n">
+        <v>113215</v>
+      </c>
+      <c r="H441" t="n">
+        <v>-2565</v>
       </c>
       <c r="I441" t="inlineStr">
         <is>
@@ -21736,15 +21636,11 @@
           <t>113680.00A</t>
         </is>
       </c>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>113765.00</t>
-        </is>
-      </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>-2565.00</t>
-        </is>
+      <c r="G442" t="n">
+        <v>113765</v>
+      </c>
+      <c r="H442" t="n">
+        <v>-2565</v>
       </c>
       <c r="I442" t="inlineStr">
         <is>
@@ -21788,15 +21684,11 @@
           <t>114985.00A</t>
         </is>
       </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>114240.00</t>
-        </is>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>-2585.00</t>
-        </is>
+      <c r="G443" t="n">
+        <v>114240</v>
+      </c>
+      <c r="H443" t="n">
+        <v>-2585</v>
       </c>
       <c r="I443" t="inlineStr">
         <is>
@@ -21840,15 +21732,11 @@
           <t>117150.00A</t>
         </is>
       </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>115790.00</t>
-        </is>
-      </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>-2585.00</t>
-        </is>
+      <c r="G444" t="n">
+        <v>115790</v>
+      </c>
+      <c r="H444" t="n">
+        <v>-2585</v>
       </c>
       <c r="I444" t="inlineStr">
         <is>
@@ -21892,15 +21780,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>117390.00</t>
-        </is>
-      </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>-2605.00</t>
-        </is>
+      <c r="G445" t="n">
+        <v>117390</v>
+      </c>
+      <c r="H445" t="n">
+        <v>-2605</v>
       </c>
       <c r="I445" t="inlineStr">
         <is>
@@ -21944,15 +21828,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>119150.00</t>
-        </is>
-      </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>-2640.00</t>
-        </is>
+      <c r="G446" t="n">
+        <v>119150</v>
+      </c>
+      <c r="H446" t="n">
+        <v>-2640</v>
       </c>
       <c r="I446" t="inlineStr">
         <is>
@@ -21960,6 +21840,2606 @@
         </is>
       </c>
       <c r="J446" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>110950.00</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>113810.00</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>110480.00</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>112060.00A</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>111955.00</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>+1710.00</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>8,804</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>23,271</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>111850.00</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>114640.00B</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>111340.00A</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>112930.00A</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>112815.00</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>+1720.00</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>3,145</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>112835.00</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>115310.00B</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>112055.00A</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>113420.00B</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>113510.00</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>+1730.00</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>113285.00</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>115965.00B</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>112825.00A</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>113285.00B</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>114205.00</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>+1715.00</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>116000.00</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>116740.00B</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>113620.00A</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>116000.00A</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>114955.00</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>+1740.00</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>117210.00B</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>117210.00B</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>115505.00</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>+1740.00</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>117715.00B</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>117715.00B</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>115955.00</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>+1715.00</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>119165.00B</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>119165.00B</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>117505.00</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>+1715.00</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>119210.00</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>+1820.00</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>121000.00</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>+1850.00</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>111320.00</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>113420.00</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>111000.00</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>112480.00</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>112480.00</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>+525.00</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>4,752</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>22,797</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>112390.00</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>114250.00B</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>111840.00</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>113350.00</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>113335.00</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>+520.00</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>1,121</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>3,640</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>114705.00</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>114915.00B</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>112605.00A</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>114135.00A</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>114030.00</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>+520.00</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>115575.00B</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>113345.00A</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>113345.00A</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>114735.00</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>+530.00</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>116315.00B</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>114195.00A</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>114195.00A</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>115460.00</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>+505.00</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>116400.00B</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>116400.00B</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>116010.00</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>+505.00</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>117305.00B</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>117305.00B</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>116485.00</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>+530.00</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>118750.00B</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>118750.00B</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>118035.00</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>+530.00</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>119705.00</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>+495.00</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>121500.00</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>+500.00</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>112820.00</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>113840.00</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>111015.00</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>111885.00</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>111695.00</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-785.00</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>7,678</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>22,028</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>113715.00</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>114670.00B</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>111890.00A</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>112760.00A</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>112545.00</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-790.00</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>1,122</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>4,244</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>114540.00</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>115345.00B</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>112605.00A</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>112985.00B</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>113235.00</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-795.00</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>116000.00B</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>113335.00A</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>116000.00B</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>113940.00</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-795.00</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>116760.00B</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>114175.00A</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>116760.00B</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>114670.00</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-790.00</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>115100.00A</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>115100.00A</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>115220.00</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-790.00</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>117705.00B</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>116200.00A</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>117705.00B</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>115690.00</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-795.00</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>119180.00B</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>119180.00B</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>117240.00</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-795.00</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>118875.00</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-830.00</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>120660.00</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-840.00</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>111690.00</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>114925.00</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>111230.00</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>114055.00B</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>113975.00</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>+2280.00</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>8,868</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>21,759</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>112560.00</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>115760.00</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>112100.00</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>115110.00A</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>114840.00</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>+2295.00</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>2,268</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>4,760</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>114550.00</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>116420.00B</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>112810.00A</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>115715.00A</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>115535.00</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>+2300.00</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>117085.00B</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>113615.00A</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>117085.00B</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>116245.00</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>+2305.00</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>117790.00B</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>114445.00A</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>117790.00B</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>116965.00</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>+2295.00</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>118305.00B</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>118305.00B</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>117515.00</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>+2295.00</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>118800.00B</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>118800.00B</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>117995.00</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>+2305.00</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>120385.00B</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>120385.00B</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>119545.00</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>+2305.00</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>121315.00</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>+2440.00</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>123135.00</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>+2475.00</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>114360.00</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>115195.00</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>113590.00</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>114855.00</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>114930.00</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>+955.00</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>5,436</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>21,296</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>115200.00</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>116020.00B</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>114595.00</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>115745.00</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>115800.00</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>+960.00</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>1,229</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>5,660</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>116070.00</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>116705.00B</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>115380.00A</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>116330.00A</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>116490.00</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>+955.00</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>116950.00</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>117365.00B</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>116235.00A</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>116950.00B</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>117210.00</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>+965.00</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>118130.00B</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>118130.00B</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>117960.00</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>+995.00</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>118610.00B</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>118610.00B</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>118510.00</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>+995.00</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>119105.00B</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>119105.00B</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>118960.00</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>+965.00</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>120605.00B</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>120605.00B</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>120510.00</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>+965.00</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>122235.00</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>+920.00</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>124070.00</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>+935.00</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/data_raw/CME_BTC_Future_latest.xlsx
+++ b/data_raw/CME_BTC_Future_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J496"/>
+  <dimension ref="A1:J536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21876,15 +21876,11 @@
           <t>112060.00A</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>111955.00</t>
-        </is>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>+1710.00</t>
-        </is>
+      <c r="G447" t="n">
+        <v>111955</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1710</v>
       </c>
       <c r="I447" t="inlineStr">
         <is>
@@ -21928,15 +21924,11 @@
           <t>112930.00A</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>112815.00</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>+1720.00</t>
-        </is>
+      <c r="G448" t="n">
+        <v>112815</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1720</v>
       </c>
       <c r="I448" t="inlineStr">
         <is>
@@ -21980,15 +21972,11 @@
           <t>113420.00B</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>113510.00</t>
-        </is>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>+1730.00</t>
-        </is>
+      <c r="G449" t="n">
+        <v>113510</v>
+      </c>
+      <c r="H449" t="n">
+        <v>1730</v>
       </c>
       <c r="I449" t="inlineStr">
         <is>
@@ -22032,15 +22020,11 @@
           <t>113285.00B</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>114205.00</t>
-        </is>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>+1715.00</t>
-        </is>
+      <c r="G450" t="n">
+        <v>114205</v>
+      </c>
+      <c r="H450" t="n">
+        <v>1715</v>
       </c>
       <c r="I450" t="inlineStr">
         <is>
@@ -22084,15 +22068,11 @@
           <t>116000.00A</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>114955.00</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>+1740.00</t>
-        </is>
+      <c r="G451" t="n">
+        <v>114955</v>
+      </c>
+      <c r="H451" t="n">
+        <v>1740</v>
       </c>
       <c r="I451" t="inlineStr">
         <is>
@@ -22136,15 +22116,11 @@
           <t>117210.00B</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>115505.00</t>
-        </is>
-      </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>+1740.00</t>
-        </is>
+      <c r="G452" t="n">
+        <v>115505</v>
+      </c>
+      <c r="H452" t="n">
+        <v>1740</v>
       </c>
       <c r="I452" t="inlineStr">
         <is>
@@ -22188,15 +22164,11 @@
           <t>117715.00B</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>115955.00</t>
-        </is>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>+1715.00</t>
-        </is>
+      <c r="G453" t="n">
+        <v>115955</v>
+      </c>
+      <c r="H453" t="n">
+        <v>1715</v>
       </c>
       <c r="I453" t="inlineStr">
         <is>
@@ -22240,15 +22212,11 @@
           <t>119165.00B</t>
         </is>
       </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>117505.00</t>
-        </is>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>+1715.00</t>
-        </is>
+      <c r="G454" t="n">
+        <v>117505</v>
+      </c>
+      <c r="H454" t="n">
+        <v>1715</v>
       </c>
       <c r="I454" t="inlineStr">
         <is>
@@ -22292,15 +22260,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>119210.00</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>+1820.00</t>
-        </is>
+      <c r="G455" t="n">
+        <v>119210</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1820</v>
       </c>
       <c r="I455" t="inlineStr">
         <is>
@@ -22344,15 +22308,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>121000.00</t>
-        </is>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>+1850.00</t>
-        </is>
+      <c r="G456" t="n">
+        <v>121000</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1850</v>
       </c>
       <c r="I456" t="inlineStr">
         <is>
@@ -22396,15 +22356,11 @@
           <t>112480.00</t>
         </is>
       </c>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>112480.00</t>
-        </is>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>+525.00</t>
-        </is>
+      <c r="G457" t="n">
+        <v>112480</v>
+      </c>
+      <c r="H457" t="n">
+        <v>525</v>
       </c>
       <c r="I457" t="inlineStr">
         <is>
@@ -22448,15 +22404,11 @@
           <t>113350.00</t>
         </is>
       </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>113335.00</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>+520.00</t>
-        </is>
+      <c r="G458" t="n">
+        <v>113335</v>
+      </c>
+      <c r="H458" t="n">
+        <v>520</v>
       </c>
       <c r="I458" t="inlineStr">
         <is>
@@ -22500,15 +22452,11 @@
           <t>114135.00A</t>
         </is>
       </c>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>114030.00</t>
-        </is>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>+520.00</t>
-        </is>
+      <c r="G459" t="n">
+        <v>114030</v>
+      </c>
+      <c r="H459" t="n">
+        <v>520</v>
       </c>
       <c r="I459" t="inlineStr">
         <is>
@@ -22552,15 +22500,11 @@
           <t>113345.00A</t>
         </is>
       </c>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>114735.00</t>
-        </is>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>+530.00</t>
-        </is>
+      <c r="G460" t="n">
+        <v>114735</v>
+      </c>
+      <c r="H460" t="n">
+        <v>530</v>
       </c>
       <c r="I460" t="inlineStr">
         <is>
@@ -22604,15 +22548,11 @@
           <t>114195.00A</t>
         </is>
       </c>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>115460.00</t>
-        </is>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>+505.00</t>
-        </is>
+      <c r="G461" t="n">
+        <v>115460</v>
+      </c>
+      <c r="H461" t="n">
+        <v>505</v>
       </c>
       <c r="I461" t="inlineStr">
         <is>
@@ -22656,15 +22596,11 @@
           <t>116400.00B</t>
         </is>
       </c>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>116010.00</t>
-        </is>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>+505.00</t>
-        </is>
+      <c r="G462" t="n">
+        <v>116010</v>
+      </c>
+      <c r="H462" t="n">
+        <v>505</v>
       </c>
       <c r="I462" t="inlineStr">
         <is>
@@ -22708,15 +22644,11 @@
           <t>117305.00B</t>
         </is>
       </c>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>116485.00</t>
-        </is>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>+530.00</t>
-        </is>
+      <c r="G463" t="n">
+        <v>116485</v>
+      </c>
+      <c r="H463" t="n">
+        <v>530</v>
       </c>
       <c r="I463" t="inlineStr">
         <is>
@@ -22760,15 +22692,11 @@
           <t>118750.00B</t>
         </is>
       </c>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>118035.00</t>
-        </is>
-      </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>+530.00</t>
-        </is>
+      <c r="G464" t="n">
+        <v>118035</v>
+      </c>
+      <c r="H464" t="n">
+        <v>530</v>
       </c>
       <c r="I464" t="inlineStr">
         <is>
@@ -22812,15 +22740,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>119705.00</t>
-        </is>
-      </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>+495.00</t>
-        </is>
+      <c r="G465" t="n">
+        <v>119705</v>
+      </c>
+      <c r="H465" t="n">
+        <v>495</v>
       </c>
       <c r="I465" t="inlineStr">
         <is>
@@ -22864,15 +22788,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>121500.00</t>
-        </is>
-      </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>+500.00</t>
-        </is>
+      <c r="G466" t="n">
+        <v>121500</v>
+      </c>
+      <c r="H466" t="n">
+        <v>500</v>
       </c>
       <c r="I466" t="inlineStr">
         <is>
@@ -22916,15 +22836,11 @@
           <t>111885.00</t>
         </is>
       </c>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>111695.00</t>
-        </is>
-      </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>-785.00</t>
-        </is>
+      <c r="G467" t="n">
+        <v>111695</v>
+      </c>
+      <c r="H467" t="n">
+        <v>-785</v>
       </c>
       <c r="I467" t="inlineStr">
         <is>
@@ -22968,15 +22884,11 @@
           <t>112760.00A</t>
         </is>
       </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>112545.00</t>
-        </is>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>-790.00</t>
-        </is>
+      <c r="G468" t="n">
+        <v>112545</v>
+      </c>
+      <c r="H468" t="n">
+        <v>-790</v>
       </c>
       <c r="I468" t="inlineStr">
         <is>
@@ -23020,15 +22932,11 @@
           <t>112985.00B</t>
         </is>
       </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>113235.00</t>
-        </is>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>-795.00</t>
-        </is>
+      <c r="G469" t="n">
+        <v>113235</v>
+      </c>
+      <c r="H469" t="n">
+        <v>-795</v>
       </c>
       <c r="I469" t="inlineStr">
         <is>
@@ -23072,15 +22980,11 @@
           <t>116000.00B</t>
         </is>
       </c>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>113940.00</t>
-        </is>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>-795.00</t>
-        </is>
+      <c r="G470" t="n">
+        <v>113940</v>
+      </c>
+      <c r="H470" t="n">
+        <v>-795</v>
       </c>
       <c r="I470" t="inlineStr">
         <is>
@@ -23124,15 +23028,11 @@
           <t>116760.00B</t>
         </is>
       </c>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>114670.00</t>
-        </is>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>-790.00</t>
-        </is>
+      <c r="G471" t="n">
+        <v>114670</v>
+      </c>
+      <c r="H471" t="n">
+        <v>-790</v>
       </c>
       <c r="I471" t="inlineStr">
         <is>
@@ -23176,15 +23076,11 @@
           <t>115100.00A</t>
         </is>
       </c>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>115220.00</t>
-        </is>
-      </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>-790.00</t>
-        </is>
+      <c r="G472" t="n">
+        <v>115220</v>
+      </c>
+      <c r="H472" t="n">
+        <v>-790</v>
       </c>
       <c r="I472" t="inlineStr">
         <is>
@@ -23228,15 +23124,11 @@
           <t>117705.00B</t>
         </is>
       </c>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>115690.00</t>
-        </is>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>-795.00</t>
-        </is>
+      <c r="G473" t="n">
+        <v>115690</v>
+      </c>
+      <c r="H473" t="n">
+        <v>-795</v>
       </c>
       <c r="I473" t="inlineStr">
         <is>
@@ -23280,15 +23172,11 @@
           <t>119180.00B</t>
         </is>
       </c>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>117240.00</t>
-        </is>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>-795.00</t>
-        </is>
+      <c r="G474" t="n">
+        <v>117240</v>
+      </c>
+      <c r="H474" t="n">
+        <v>-795</v>
       </c>
       <c r="I474" t="inlineStr">
         <is>
@@ -23332,15 +23220,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>118875.00</t>
-        </is>
-      </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>-830.00</t>
-        </is>
+      <c r="G475" t="n">
+        <v>118875</v>
+      </c>
+      <c r="H475" t="n">
+        <v>-830</v>
       </c>
       <c r="I475" t="inlineStr">
         <is>
@@ -23384,15 +23268,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>120660.00</t>
-        </is>
-      </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>-840.00</t>
-        </is>
+      <c r="G476" t="n">
+        <v>120660</v>
+      </c>
+      <c r="H476" t="n">
+        <v>-840</v>
       </c>
       <c r="I476" t="inlineStr">
         <is>
@@ -23436,15 +23316,11 @@
           <t>114055.00B</t>
         </is>
       </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>113975.00</t>
-        </is>
-      </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>+2280.00</t>
-        </is>
+      <c r="G477" t="n">
+        <v>113975</v>
+      </c>
+      <c r="H477" t="n">
+        <v>2280</v>
       </c>
       <c r="I477" t="inlineStr">
         <is>
@@ -23488,15 +23364,11 @@
           <t>115110.00A</t>
         </is>
       </c>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>114840.00</t>
-        </is>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>+2295.00</t>
-        </is>
+      <c r="G478" t="n">
+        <v>114840</v>
+      </c>
+      <c r="H478" t="n">
+        <v>2295</v>
       </c>
       <c r="I478" t="inlineStr">
         <is>
@@ -23540,15 +23412,11 @@
           <t>115715.00A</t>
         </is>
       </c>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>115535.00</t>
-        </is>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>+2300.00</t>
-        </is>
+      <c r="G479" t="n">
+        <v>115535</v>
+      </c>
+      <c r="H479" t="n">
+        <v>2300</v>
       </c>
       <c r="I479" t="inlineStr">
         <is>
@@ -23592,15 +23460,11 @@
           <t>117085.00B</t>
         </is>
       </c>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>116245.00</t>
-        </is>
-      </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>+2305.00</t>
-        </is>
+      <c r="G480" t="n">
+        <v>116245</v>
+      </c>
+      <c r="H480" t="n">
+        <v>2305</v>
       </c>
       <c r="I480" t="inlineStr">
         <is>
@@ -23644,15 +23508,11 @@
           <t>117790.00B</t>
         </is>
       </c>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>116965.00</t>
-        </is>
-      </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>+2295.00</t>
-        </is>
+      <c r="G481" t="n">
+        <v>116965</v>
+      </c>
+      <c r="H481" t="n">
+        <v>2295</v>
       </c>
       <c r="I481" t="inlineStr">
         <is>
@@ -23696,15 +23556,11 @@
           <t>118305.00B</t>
         </is>
       </c>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>117515.00</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>+2295.00</t>
-        </is>
+      <c r="G482" t="n">
+        <v>117515</v>
+      </c>
+      <c r="H482" t="n">
+        <v>2295</v>
       </c>
       <c r="I482" t="inlineStr">
         <is>
@@ -23748,15 +23604,11 @@
           <t>118800.00B</t>
         </is>
       </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>117995.00</t>
-        </is>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>+2305.00</t>
-        </is>
+      <c r="G483" t="n">
+        <v>117995</v>
+      </c>
+      <c r="H483" t="n">
+        <v>2305</v>
       </c>
       <c r="I483" t="inlineStr">
         <is>
@@ -23800,15 +23652,11 @@
           <t>120385.00B</t>
         </is>
       </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>119545.00</t>
-        </is>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>+2305.00</t>
-        </is>
+      <c r="G484" t="n">
+        <v>119545</v>
+      </c>
+      <c r="H484" t="n">
+        <v>2305</v>
       </c>
       <c r="I484" t="inlineStr">
         <is>
@@ -23852,15 +23700,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>121315.00</t>
-        </is>
-      </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>+2440.00</t>
-        </is>
+      <c r="G485" t="n">
+        <v>121315</v>
+      </c>
+      <c r="H485" t="n">
+        <v>2440</v>
       </c>
       <c r="I485" t="inlineStr">
         <is>
@@ -23904,15 +23748,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>123135.00</t>
-        </is>
-      </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>+2475.00</t>
-        </is>
+      <c r="G486" t="n">
+        <v>123135</v>
+      </c>
+      <c r="H486" t="n">
+        <v>2475</v>
       </c>
       <c r="I486" t="inlineStr">
         <is>
@@ -23956,15 +23796,11 @@
           <t>114855.00</t>
         </is>
       </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>114930.00</t>
-        </is>
-      </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>+955.00</t>
-        </is>
+      <c r="G487" t="n">
+        <v>114930</v>
+      </c>
+      <c r="H487" t="n">
+        <v>955</v>
       </c>
       <c r="I487" t="inlineStr">
         <is>
@@ -24008,15 +23844,11 @@
           <t>115745.00</t>
         </is>
       </c>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>115800.00</t>
-        </is>
-      </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>+960.00</t>
-        </is>
+      <c r="G488" t="n">
+        <v>115800</v>
+      </c>
+      <c r="H488" t="n">
+        <v>960</v>
       </c>
       <c r="I488" t="inlineStr">
         <is>
@@ -24060,15 +23892,11 @@
           <t>116330.00A</t>
         </is>
       </c>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>116490.00</t>
-        </is>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>+955.00</t>
-        </is>
+      <c r="G489" t="n">
+        <v>116490</v>
+      </c>
+      <c r="H489" t="n">
+        <v>955</v>
       </c>
       <c r="I489" t="inlineStr">
         <is>
@@ -24112,15 +23940,11 @@
           <t>116950.00B</t>
         </is>
       </c>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>117210.00</t>
-        </is>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>+965.00</t>
-        </is>
+      <c r="G490" t="n">
+        <v>117210</v>
+      </c>
+      <c r="H490" t="n">
+        <v>965</v>
       </c>
       <c r="I490" t="inlineStr">
         <is>
@@ -24164,15 +23988,11 @@
           <t>118130.00B</t>
         </is>
       </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>117960.00</t>
-        </is>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>+995.00</t>
-        </is>
+      <c r="G491" t="n">
+        <v>117960</v>
+      </c>
+      <c r="H491" t="n">
+        <v>995</v>
       </c>
       <c r="I491" t="inlineStr">
         <is>
@@ -24216,15 +24036,11 @@
           <t>118610.00B</t>
         </is>
       </c>
-      <c r="G492" t="inlineStr">
-        <is>
-          <t>118510.00</t>
-        </is>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>+995.00</t>
-        </is>
+      <c r="G492" t="n">
+        <v>118510</v>
+      </c>
+      <c r="H492" t="n">
+        <v>995</v>
       </c>
       <c r="I492" t="inlineStr">
         <is>
@@ -24268,15 +24084,11 @@
           <t>119105.00B</t>
         </is>
       </c>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>118960.00</t>
-        </is>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>+965.00</t>
-        </is>
+      <c r="G493" t="n">
+        <v>118960</v>
+      </c>
+      <c r="H493" t="n">
+        <v>965</v>
       </c>
       <c r="I493" t="inlineStr">
         <is>
@@ -24320,15 +24132,11 @@
           <t>120605.00B</t>
         </is>
       </c>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>120510.00</t>
-        </is>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>+965.00</t>
-        </is>
+      <c r="G494" t="n">
+        <v>120510</v>
+      </c>
+      <c r="H494" t="n">
+        <v>965</v>
       </c>
       <c r="I494" t="inlineStr">
         <is>
@@ -24372,15 +24180,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>122235.00</t>
-        </is>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>+920.00</t>
-        </is>
+      <c r="G495" t="n">
+        <v>122235</v>
+      </c>
+      <c r="H495" t="n">
+        <v>920</v>
       </c>
       <c r="I495" t="inlineStr">
         <is>
@@ -24424,15 +24228,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>124070.00</t>
-        </is>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>+935.00</t>
-        </is>
+      <c r="G496" t="n">
+        <v>124070</v>
+      </c>
+      <c r="H496" t="n">
+        <v>935</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
@@ -24440,6 +24240,2086 @@
         </is>
       </c>
       <c r="J496" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>114915.00</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>117320.00</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>114850.00</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>116850.00</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>117265.00</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>+2335.00</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>6,556</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>21,065</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>115900.00</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>118200.00</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>115740.00A</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>117850.00A</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>118145.00</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>+2345.00</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>1,687</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>6,325</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>117295.00</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>118885.00</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>116455.00A</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>118835.00B</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>118845.00</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>+2355.00</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>117900.00</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>119565.00B</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>117620.00</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>118615.00A</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>119565.00</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>+2355.00</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>120295.00B</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>120295.00B</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>120320.00</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>+2360.00</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>120805.00B</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>120805.00B</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>120870.00</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>+2360.00</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>121205.00B</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>121205.00B</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>121315.00</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>+2355.00</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>122815.00B</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>122815.00B</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>122865.00</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>+2355.00</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>124615.00</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>+2380.00</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>126490.00</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>+2420.00</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>116625.00</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>117240.00</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>114635.00</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>115665.00</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>115575.00</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-1690.00</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>7,571</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>20,730</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>117525.00</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>118140.00</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>115515.00A</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>116525.00</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>116460.00</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-1685.00</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>1,811</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>7,123</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>117175.00</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>118785.00B</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>116255.00A</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>117100.00B</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>117150.00</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-1695.00</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>118515.00</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>119500.00B</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>117040.00A</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>117500.00A</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>117890.00</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-1675.00</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>117870.00A</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>117870.00A</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>118650.00</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-1670.00</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>118795.00A</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>118795.00A</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>119200.00</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-1670.00</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>119995.00A</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>119995.00A</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>119640.00</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-1675.00</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>122680.00A</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>122680.00A</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>121190.00</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-1675.00</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>123020.00</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-1595.00</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>124870.00</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-1620.00</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>115800.00</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>117335.00</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>114960.00</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>117230.00A</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>117090.00</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>+1515.00</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>5,874</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>19,667</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>116730.00</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>118205.00B</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>115815.00</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>118105.00</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>117975.00</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>+1515.00</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>1,935</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>7,916</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>116680.00</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>118895.00B</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>116565.00A</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>118675.00B</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>118665.00</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>+1515.00</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>118660.00</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>119585.00B</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>117445.00A</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>118660.00A</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>119400.00</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>+1510.00</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>120350.00B</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>118275.00A</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>120350.00B</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>120175.00</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>+1525.00</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>120805.00B</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>119085.00A</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>120805.00B</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>120750.00</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>+1550.00</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>121305.00B</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>121305.00B</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>121150.00</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>+1510.00</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>122735.00B</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>122735.00B</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>122700.00</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>+1510.00</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>124590.00</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>+1570.00</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>126465.00</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>+1595.00</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>117205.00</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>117685.00</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>114850.00</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>115860.00A</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>115825.00</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>-1265.00</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>8,728</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>19,082</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>118090.00</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>118550.00</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>115710.00A</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>116565.00B</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>116690.00</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-1285.00</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>2,203</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>9,098</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>119135.00</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>119225.00B</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>116365.00</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>117870.00A</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>117370.00</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>-1295.00</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>119425.00</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>119955.00B</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>117235.00A</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>118500.00B</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>118105.00</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-1295.00</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>120725.00B</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>118045.00A</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>120725.00B</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>118865.00</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>-1310.00</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>121205.00B</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>118995.00A</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>121205.00B</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>119440.00</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-1310.00</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>121605.00B</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>120190.00A</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>121605.00B</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>119855.00</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-1295.00</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>123100.00B</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>123100.00B</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>121475.00</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-1225.00</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>123345.00</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-1245.00</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>125200.00</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-1265.00</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
         <is>
           <t>0</t>
         </is>
